--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja1.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -23,7 +23,7 @@
     <t xml:space="preserve">TRIBUNAL UNITARIO AGRARIO DISTRITO:</t>
   </si>
   <si>
-    <t xml:space="preserve">56</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">Columna de Verificación de Datos</t>
@@ -32,16 +32,13 @@
     <t xml:space="preserve">CON SEDE EN:</t>
   </si>
   <si>
-    <t xml:space="preserve">TEPIC, NAYARIT</t>
-  </si>
-  <si>
     <t xml:space="preserve">INFORME CORRESPONDIENTE AL MES DE:</t>
   </si>
   <si>
-    <t xml:space="preserve">FEBRERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del 2023</t>
+    <t xml:space="preserve">DICIEMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 2024</t>
   </si>
   <si>
     <t xml:space="preserve">DATOS GENERALES DEL INFORME</t>
@@ -50,16 +47,16 @@
     <t xml:space="preserve">PRIMER NUMERO DE JUICIO DEL MES.</t>
   </si>
   <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/2023</t>
+    <t xml:space="preserve">1719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/2024</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;----</t>
   </si>
   <si>
-    <t xml:space="preserve">85</t>
+    <t xml:space="preserve">141</t>
   </si>
   <si>
     <t xml:space="preserve">El número que resulta al restar el último expediente menos el primero mas uno, debe ser igual a la suma de los puntos 1.1 y 1.2, favor de distribuir correctamente por el tipo de recepción.</t>
@@ -68,7 +65,7 @@
     <t xml:space="preserve">ULTIMO NUMERO DE JUICIO DEL MES.</t>
   </si>
   <si>
-    <t xml:space="preserve">164</t>
+    <t xml:space="preserve">1859</t>
   </si>
   <si>
     <t xml:space="preserve">ASUNTOS PENDIENTES DE ADMITIR</t>
@@ -77,151 +74,148 @@
     <t xml:space="preserve">REPORTADOS EN EL MES ANTERIOR.</t>
   </si>
   <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe coincidir con el punto 1.3.3  del INFORME DEL MES ANTERIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I.- INGRESOS EN EL MES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1000000000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPEDIENTES RECIBIDOS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LA COMISION AGRARIA MIXTA. (Ejecutorias)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEL TRIBUNAL SUPERIOR AGRARIO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE OTRAS AUTORIDADES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMANDAS PROMOVIDAS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POR ESCRITO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POR COMPARECENCIA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL DE INGRESOS EN EL MES*:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITUACION DE LOS ASUNTOS RECIBIDOS Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENDIENTES DE ADMITIR DEL MES ANTERIOR:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(EXPEDIENTES Y DEMANDAS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este resultado debe coincidir con el total de la Hoja 3 en su columna correspondiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUNTOS ADMITIDOS EN EL MES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMANDAS "POR NO - INTERPUESTAS" EN EL MES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUNTOS  PENDIENTES DE ADMITIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este resultado deberá de tomarse en cuenta en los Datos Generales del Informe próximo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUNTOS  PENDIENTES CON PREVENCIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este resultado debe coincidir con el total del inciso c) Con Prevención del punto 8.2.1 de la Hoja 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORRIENDO TERMINO PARA CADUCIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO SE SUMAN A NADA. No se pueden volver a contabilizar ya que en su origen ya fueron reportados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUNTOS  PENDIENTES DE ADMITIR (OTRAS CAUSAS)</t>
+  </si>
+  <si>
     <t xml:space="preserve">36</t>
   </si>
   <si>
-    <t xml:space="preserve">Debe coincidir con el punto 1.3.3  del INFORME DEL MES ANTERIOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I.- INGRESOS EN EL MES.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1000000000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXPEDIENTES RECIBIDOS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LA COMISION AGRARIA MIXTA. (Ejecutorias)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEL TRIBUNAL SUPERIOR AGRARIO.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE OTRAS AUTORIDADES.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEMANDAS PROMOVIDAS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POR ESCRITO.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POR COMPARECENCIA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL DE INGRESOS EN EL MES*:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SITUACION DE LOS ASUNTOS RECIBIDOS Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENDIENTES DE ADMITIR DEL MES ANTERIOR:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(EXPEDIENTES Y DEMANDAS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este resultado debe coincidir con el total de la Hoja 3 en su columna correspondiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASUNTOS ADMITIDOS EN EL MES.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEMANDAS "POR NO - INTERPUESTAS" EN EL MES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASUNTOS  PENDIENTES DE ADMITIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este resultado deberá de tomarse en cuenta en los Datos Generales del Informe próximo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASUNTOS  PENDIENTES CON PREVENCIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este resultado debe coincidir con el total del inciso c) Con Prevención del punto 8.2.1 de la Hoja 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORRIENDO TERMINO PARA CADUCIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO SE SUMAN A NADA. No se pueden volver a contabilizar ya que en su origen ya fueron reportados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASUNTOS  PENDIENTES DE ADMITIR (OTRAS CAUSAS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
     <t xml:space="preserve">NO SE SUMAN A NADA. No se pueden contabilizar ya que no existe Acuerdo que determine su status</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL*:</t>
   </si>
   <si>
-    <t xml:space="preserve">121</t>
+    <t xml:space="preserve">166</t>
   </si>
   <si>
     <t xml:space="preserve">Este resultado debe coincidir con el total de la suma de los asuntos pendientes del mes anterior mas el total de ingresos en el mes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 1</t>
@@ -630,9 +624,7 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
@@ -644,14 +636,14 @@
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -707,7 +699,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -735,39 +727,39 @@
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
@@ -789,7 +781,7 @@
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -803,19 +795,19 @@
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16"/>
     </row>
@@ -845,7 +837,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -871,10 +863,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
         <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -900,17 +892,15 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
         <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="G23" s="1"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -930,17 +920,15 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
-      <c r="G25" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="G25" s="1"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
@@ -960,17 +948,15 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
-      <c r="G27" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="G27" s="1"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -989,10 +975,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1018,16 +1004,16 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
@@ -1048,10 +1034,10 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -1077,13 +1063,13 @@
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
@@ -1103,10 +1089,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1120,7 +1106,7 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1135,7 +1121,7 @@
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -1156,28 +1142,28 @@
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J41"/>
     </row>
@@ -1196,25 +1182,25 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
@@ -1244,23 +1230,23 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
         <v>51</v>
-      </c>
-      <c r="C46" t="s">
-        <v>52</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H46"/>
       <c r="I46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J46" t="s">
         <v>53</v>
-      </c>
-      <c r="J46" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="47">
@@ -1278,25 +1264,25 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
         <v>55</v>
-      </c>
-      <c r="C48" t="s">
-        <v>56</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" t="s">
         <v>57</v>
-      </c>
-      <c r="H48" t="s">
-        <v>48</v>
-      </c>
-      <c r="I48" t="s">
-        <v>57</v>
-      </c>
-      <c r="J48" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="49">
@@ -1314,20 +1300,20 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
         <v>59</v>
-      </c>
-      <c r="C50" t="s">
-        <v>60</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J50"/>
     </row>
@@ -1346,20 +1332,20 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
         <v>62</v>
-      </c>
-      <c r="C52" t="s">
-        <v>63</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J52"/>
     </row>
@@ -1392,21 +1378,21 @@
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>66</v>
+      </c>
+      <c r="J55" t="s">
         <v>67</v>
-      </c>
-      <c r="H55" t="s">
-        <v>48</v>
-      </c>
-      <c r="I55" t="s">
-        <v>67</v>
-      </c>
-      <c r="J55" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="56">
@@ -1450,14 +1436,14 @@
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" t="s">
-        <v>69</v>
+        <v>7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2024</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja1.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -23,7 +23,7 @@
     <t xml:space="preserve">TRIBUNAL UNITARIO AGRARIO DISTRITO:</t>
   </si>
   <si>
-    <t xml:space="preserve">34</t>
+    <t xml:space="preserve">H01_01</t>
   </si>
   <si>
     <t xml:space="preserve">Columna de Verificación de Datos</t>
@@ -32,10 +32,13 @@
     <t xml:space="preserve">CON SEDE EN:</t>
   </si>
   <si>
+    <t xml:space="preserve">H01_02</t>
+  </si>
+  <si>
     <t xml:space="preserve">INFORME CORRESPONDIENTE AL MES DE:</t>
   </si>
   <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">H01_03</t>
   </si>
   <si>
     <t xml:space="preserve">del 2024</t>
@@ -47,7 +50,7 @@
     <t xml:space="preserve">PRIMER NUMERO DE JUICIO DEL MES.</t>
   </si>
   <si>
-    <t xml:space="preserve">1719</t>
+    <t xml:space="preserve">H01_04</t>
   </si>
   <si>
     <t xml:space="preserve">/2024</t>
@@ -56,16 +59,13 @@
     <t xml:space="preserve">&lt;----</t>
   </si>
   <si>
-    <t xml:space="preserve">141</t>
-  </si>
-  <si>
     <t xml:space="preserve">El número que resulta al restar el último expediente menos el primero mas uno, debe ser igual a la suma de los puntos 1.1 y 1.2, favor de distribuir correctamente por el tipo de recepción.</t>
   </si>
   <si>
     <t xml:space="preserve">ULTIMO NUMERO DE JUICIO DEL MES.</t>
   </si>
   <si>
-    <t xml:space="preserve">1859</t>
+    <t xml:space="preserve">H01_05</t>
   </si>
   <si>
     <t xml:space="preserve">ASUNTOS PENDIENTES DE ADMITIR</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">REPORTADOS EN EL MES ANTERIOR.</t>
   </si>
   <si>
-    <t xml:space="preserve">25</t>
+    <t xml:space="preserve">H01_06</t>
   </si>
   <si>
     <t xml:space="preserve">Debe coincidir con el punto 1.3.3  del INFORME DEL MES ANTERIOR</t>
@@ -95,18 +95,27 @@
     <t xml:space="preserve">DE LA COMISION AGRARIA MIXTA. (Ejecutorias)</t>
   </si>
   <si>
+    <t xml:space="preserve">H01_07</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.1.2</t>
   </si>
   <si>
     <t xml:space="preserve">DEL TRIBUNAL SUPERIOR AGRARIO.</t>
   </si>
   <si>
+    <t xml:space="preserve">H01_08</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.1.3</t>
   </si>
   <si>
     <t xml:space="preserve">DE OTRAS AUTORIDADES.</t>
   </si>
   <si>
+    <t xml:space="preserve">H01_09</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.2</t>
   </si>
   <si>
@@ -119,15 +128,24 @@
     <t xml:space="preserve">POR ESCRITO.</t>
   </si>
   <si>
+    <t xml:space="preserve">H01_10</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.2.2</t>
   </si>
   <si>
     <t xml:space="preserve">POR COMPARECENCIA.</t>
   </si>
   <si>
+    <t xml:space="preserve">H01_11</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOTAL DE INGRESOS EN EL MES*:</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.3</t>
   </si>
   <si>
@@ -149,10 +167,10 @@
     <t xml:space="preserve">ASUNTOS ADMITIDOS EN EL MES.</t>
   </si>
   <si>
-    <t xml:space="preserve">114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK</t>
+    <t xml:space="preserve">H01_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERIFICAR</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.2</t>
@@ -161,7 +179,7 @@
     <t xml:space="preserve">DEMANDAS "POR NO - INTERPUESTAS" EN EL MES</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">H01_13</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.3</t>
@@ -170,9 +188,6 @@
     <t xml:space="preserve">ASUNTOS  PENDIENTES DE ADMITIR</t>
   </si>
   <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
     <t xml:space="preserve">Este resultado deberá de tomarse en cuenta en los Datos Generales del Informe próximo</t>
   </si>
   <si>
@@ -182,7 +197,7 @@
     <t xml:space="preserve">ASUNTOS  PENDIENTES CON PREVENCIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">16</t>
+    <t xml:space="preserve">H01_14</t>
   </si>
   <si>
     <t xml:space="preserve">Este resultado debe coincidir con el total del inciso c) Con Prevención del punto 8.2.1 de la Hoja 8</t>
@@ -194,6 +209,9 @@
     <t xml:space="preserve">CORRIENDO TERMINO PARA CADUCIDAD</t>
   </si>
   <si>
+    <t xml:space="preserve">H01_15</t>
+  </si>
+  <si>
     <t xml:space="preserve">NO SE SUMAN A NADA. No se pueden volver a contabilizar ya que en su origen ya fueron reportados</t>
   </si>
   <si>
@@ -203,7 +221,7 @@
     <t xml:space="preserve">ASUNTOS  PENDIENTES DE ADMITIR (OTRAS CAUSAS)</t>
   </si>
   <si>
-    <t xml:space="preserve">36</t>
+    <t xml:space="preserve">H01_16</t>
   </si>
   <si>
     <t xml:space="preserve">NO SE SUMAN A NADA. No se pueden contabilizar ya que no existe Acuerdo que determine su status</t>
@@ -212,10 +230,10 @@
     <t xml:space="preserve">TOTAL*:</t>
   </si>
   <si>
-    <t xml:space="preserve">166</t>
-  </si>
-  <si>
     <t xml:space="preserve">Este resultado debe coincidir con el total de la suma de los asuntos pendientes del mes anterior mas el total de ingresos en el mes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 1</t>
@@ -624,7 +642,9 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
@@ -636,14 +656,14 @@
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -699,7 +719,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -727,22 +747,20 @@
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
         <v>14</v>
       </c>
+      <c r="I12"/>
       <c r="J12" t="s">
         <v>15</v>
       </c>
@@ -759,7 +777,7 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
@@ -804,7 +822,7 @@
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
         <v>21</v>
@@ -900,7 +918,9 @@
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -920,15 +940,17 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
@@ -948,15 +970,17 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -975,10 +999,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1004,16 +1028,16 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
@@ -1034,15 +1058,17 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
@@ -1063,13 +1089,13 @@
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
@@ -1089,10 +1115,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1106,7 +1132,7 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1121,7 +1147,7 @@
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -1142,28 +1168,28 @@
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J41"/>
     </row>
@@ -1182,25 +1208,25 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I43" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -1230,23 +1256,19 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
-      <c r="G46" t="s">
-        <v>52</v>
-      </c>
+      <c r="G46"/>
       <c r="H46"/>
-      <c r="I46" t="s">
-        <v>52</v>
-      </c>
+      <c r="I46"/>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47">
@@ -1264,25 +1286,25 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I48" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49">
@@ -1300,20 +1322,20 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J50"/>
     </row>
@@ -1332,20 +1354,20 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J52"/>
     </row>
@@ -1378,21 +1400,15 @@
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E55"/>
       <c r="F55"/>
-      <c r="G55" t="s">
-        <v>66</v>
-      </c>
-      <c r="H55" t="s">
-        <v>46</v>
-      </c>
-      <c r="I55" t="s">
-        <v>66</v>
-      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
       <c r="J55" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56">
@@ -1436,14 +1452,14 @@
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2024</v>
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>73</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja1.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -23,7 +23,7 @@
     <t xml:space="preserve">TRIBUNAL UNITARIO AGRARIO DISTRITO:</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_01</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">Columna de Verificación de Datos</t>
@@ -32,13 +32,10 @@
     <t xml:space="preserve">CON SEDE EN:</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_02</t>
-  </si>
-  <si>
     <t xml:space="preserve">INFORME CORRESPONDIENTE AL MES DE:</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_03</t>
+    <t xml:space="preserve">DICIEMBRE</t>
   </si>
   <si>
     <t xml:space="preserve">del 2024</t>
@@ -50,7 +47,7 @@
     <t xml:space="preserve">PRIMER NUMERO DE JUICIO DEL MES.</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_04</t>
+    <t xml:space="preserve">1719</t>
   </si>
   <si>
     <t xml:space="preserve">/2024</t>
@@ -59,13 +56,16 @@
     <t xml:space="preserve">&lt;----</t>
   </si>
   <si>
+    <t xml:space="preserve">141</t>
+  </si>
+  <si>
     <t xml:space="preserve">El número que resulta al restar el último expediente menos el primero mas uno, debe ser igual a la suma de los puntos 1.1 y 1.2, favor de distribuir correctamente por el tipo de recepción.</t>
   </si>
   <si>
     <t xml:space="preserve">ULTIMO NUMERO DE JUICIO DEL MES.</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_05</t>
+    <t xml:space="preserve">1859</t>
   </si>
   <si>
     <t xml:space="preserve">ASUNTOS PENDIENTES DE ADMITIR</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">REPORTADOS EN EL MES ANTERIOR.</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_06</t>
+    <t xml:space="preserve">25</t>
   </si>
   <si>
     <t xml:space="preserve">Debe coincidir con el punto 1.3.3  del INFORME DEL MES ANTERIOR</t>
@@ -95,27 +95,18 @@
     <t xml:space="preserve">DE LA COMISION AGRARIA MIXTA. (Ejecutorias)</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_07</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.1.2</t>
   </si>
   <si>
     <t xml:space="preserve">DEL TRIBUNAL SUPERIOR AGRARIO.</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_08</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.1.3</t>
   </si>
   <si>
     <t xml:space="preserve">DE OTRAS AUTORIDADES.</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_09</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.2</t>
   </si>
   <si>
@@ -128,66 +119,60 @@
     <t xml:space="preserve">POR ESCRITO.</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_10</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.2.2</t>
   </si>
   <si>
     <t xml:space="preserve">POR COMPARECENCIA.</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_11</t>
-  </si>
-  <si>
     <t xml:space="preserve">TOTAL DE INGRESOS EN EL MES*:</t>
   </si>
   <si>
+    <t xml:space="preserve">1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITUACION DE LOS ASUNTOS RECIBIDOS Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENDIENTES DE ADMITIR DEL MES ANTERIOR:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(EXPEDIENTES Y DEMANDAS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este resultado debe coincidir con el total de la Hoja 3 en su columna correspondiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUNTOS ADMITIDOS EN EL MES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMANDAS "POR NO - INTERPUESTAS" EN EL MES</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SITUACION DE LOS ASUNTOS RECIBIDOS Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENDIENTES DE ADMITIR DEL MES ANTERIOR:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(EXPEDIENTES Y DEMANDAS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este resultado debe coincidir con el total de la Hoja 3 en su columna correspondiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASUNTOS ADMITIDOS EN EL MES.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H01_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERIFICAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEMANDAS "POR NO - INTERPUESTAS" EN EL MES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H01_13</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.3</t>
   </si>
   <si>
     <t xml:space="preserve">ASUNTOS  PENDIENTES DE ADMITIR</t>
   </si>
   <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
     <t xml:space="preserve">Este resultado deberá de tomarse en cuenta en los Datos Generales del Informe próximo</t>
   </si>
   <si>
@@ -197,7 +182,7 @@
     <t xml:space="preserve">ASUNTOS  PENDIENTES CON PREVENCIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_14</t>
+    <t xml:space="preserve">16</t>
   </si>
   <si>
     <t xml:space="preserve">Este resultado debe coincidir con el total del inciso c) Con Prevención del punto 8.2.1 de la Hoja 8</t>
@@ -209,9 +194,6 @@
     <t xml:space="preserve">CORRIENDO TERMINO PARA CADUCIDAD</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_15</t>
-  </si>
-  <si>
     <t xml:space="preserve">NO SE SUMAN A NADA. No se pueden volver a contabilizar ya que en su origen ya fueron reportados</t>
   </si>
   <si>
@@ -221,7 +203,7 @@
     <t xml:space="preserve">ASUNTOS  PENDIENTES DE ADMITIR (OTRAS CAUSAS)</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_16</t>
+    <t xml:space="preserve">36</t>
   </si>
   <si>
     <t xml:space="preserve">NO SE SUMAN A NADA. No se pueden contabilizar ya que no existe Acuerdo que determine su status</t>
@@ -230,10 +212,10 @@
     <t xml:space="preserve">TOTAL*:</t>
   </si>
   <si>
+    <t xml:space="preserve">166</t>
+  </si>
+  <si>
     <t xml:space="preserve">Este resultado debe coincidir con el total de la suma de los asuntos pendientes del mes anterior mas el total de ingresos en el mes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 1</t>
@@ -642,9 +624,7 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
@@ -656,14 +636,14 @@
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -719,7 +699,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -747,20 +727,22 @@
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>14</v>
       </c>
-      <c r="I12"/>
       <c r="J12" t="s">
         <v>15</v>
       </c>
@@ -777,7 +759,7 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
@@ -822,7 +804,7 @@
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
         <v>21</v>
@@ -918,9 +900,7 @@
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="G23" s="1"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -940,17 +920,15 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
         <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
-      <c r="G25" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="G25" s="1"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
@@ -970,17 +948,15 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
-      <c r="G27" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G27" s="1"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -999,10 +975,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1028,16 +1004,16 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
@@ -1058,17 +1034,15 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
-      <c r="G33" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="G33" s="1"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
@@ -1089,13 +1063,13 @@
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
@@ -1115,10 +1089,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1132,7 +1106,7 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1147,7 +1121,7 @@
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -1168,28 +1142,28 @@
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J41"/>
     </row>
@@ -1208,25 +1182,25 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
@@ -1256,19 +1230,23 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
-      <c r="G46"/>
+      <c r="G46" t="s">
+        <v>52</v>
+      </c>
       <c r="H46"/>
-      <c r="I46"/>
+      <c r="I46" t="s">
+        <v>52</v>
+      </c>
       <c r="J46" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47">
@@ -1286,25 +1264,25 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H48" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49">
@@ -1322,20 +1300,20 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J50"/>
     </row>
@@ -1354,20 +1332,20 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J52"/>
     </row>
@@ -1400,15 +1378,21 @@
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E55"/>
       <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
+      <c r="G55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>66</v>
+      </c>
       <c r="J55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56">
@@ -1452,14 +1436,14 @@
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" t="s">
-        <v>73</v>
+        <v>7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2024</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja1.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja1.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">INFORME CORRESPONDIENTE AL MES DE:</t>
   </si>
   <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">Diciembre</t>
   </si>
   <si>
     <t xml:space="preserve">del 2024</t>
